--- a/common-util-parent/common-util-poi/office/generator.xlsx
+++ b/common-util-parent/common-util-poi/office/generator.xlsx
@@ -5936,7 +5936,7 @@
     <row r="31" spans="1:15" ht="28.25" customHeight="1"/>
     <row r="32" spans="1:15" ht="28.25" customHeight="1"/>
   </sheetData>
-  <mergeCells count="59">
+  <mergeCells count="62">
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="D2:G2"/>
     <mergeCell ref="D3:G3"/>
@@ -5950,7 +5950,6 @@
     <mergeCell ref="K7:O7"/>
     <mergeCell ref="H7:J7"/>
     <mergeCell ref="A2:A21"/>
-    <mergeCell ref="C12:D12"/>
     <mergeCell ref="H3:J3"/>
     <mergeCell ref="H4:J4"/>
     <mergeCell ref="H5:J5"/>
@@ -5982,8 +5981,11 @@
     <mergeCell ref="B22:H22"/>
     <mergeCell ref="I22:O22"/>
     <mergeCell ref="B12:B14"/>
+    <mergeCell ref="C12:D14"/>
     <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:D17"/>
     <mergeCell ref="B18:B20"/>
+    <mergeCell ref="C18:D20"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
